--- a/data/norm.cause-of-death-2011.xlsx
+++ b/data/norm.cause-of-death-2011.xlsx
@@ -546,58 +546,58 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
         <v>35</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J2" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K2" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L2" t="n">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="M2" t="n">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="N2" t="n">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="O2" t="n">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="P2" t="n">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="Q2" t="n">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="R2" t="n">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="S2" t="n">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="T2" t="n">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="U2" t="n">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -617,58 +617,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H3" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I3" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K3" t="n">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="L3" t="n">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="M3" t="n">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="N3" t="n">
-        <v>677</v>
+        <v>620</v>
       </c>
       <c r="O3" t="n">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="P3" t="n">
         <v>1122</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054</v>
+        <v>974</v>
       </c>
       <c r="R3" t="n">
-        <v>915</v>
+        <v>817</v>
       </c>
       <c r="S3" t="n">
-        <v>675</v>
+        <v>615</v>
       </c>
       <c r="T3" t="n">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="U3" t="n">
-        <v>263</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
@@ -688,58 +688,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="n">
         <v>3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13</v>
+      </c>
+      <c r="P4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>17</v>
+      </c>
+      <c r="R4" t="n">
+        <v>20</v>
+      </c>
+      <c r="S4" t="n">
+        <v>13</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7</v>
+      </c>
+      <c r="U4" t="n">
         <v>12</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>27</v>
-      </c>
-      <c r="R4" t="n">
-        <v>19</v>
-      </c>
-      <c r="S4" t="n">
-        <v>15</v>
-      </c>
-      <c r="T4" t="n">
-        <v>18</v>
-      </c>
-      <c r="U4" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -759,58 +759,58 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L5" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="N5" t="n">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="O5" t="n">
-        <v>579</v>
+        <v>456</v>
       </c>
       <c r="P5" t="n">
-        <v>785</v>
+        <v>647</v>
       </c>
       <c r="Q5" t="n">
-        <v>720</v>
+        <v>681</v>
       </c>
       <c r="R5" t="n">
-        <v>740</v>
+        <v>672</v>
       </c>
       <c r="S5" t="n">
-        <v>658</v>
+        <v>603</v>
       </c>
       <c r="T5" t="n">
-        <v>517</v>
+        <v>452</v>
       </c>
       <c r="U5" t="n">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6">
@@ -830,58 +830,58 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N6" t="n">
+        <v>28</v>
+      </c>
+      <c r="O6" t="n">
+        <v>24</v>
+      </c>
+      <c r="P6" t="n">
         <v>18</v>
       </c>
-      <c r="O6" t="n">
-        <v>16</v>
-      </c>
-      <c r="P6" t="n">
-        <v>20</v>
-      </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -901,58 +901,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H7" t="n">
         <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L7" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M7" t="n">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="O7" t="n">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="P7" t="n">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="Q7" t="n">
-        <v>585</v>
+        <v>614</v>
       </c>
       <c r="R7" t="n">
-        <v>774</v>
+        <v>894</v>
       </c>
       <c r="S7" t="n">
-        <v>981</v>
+        <v>1037</v>
       </c>
       <c r="T7" t="n">
-        <v>928</v>
+        <v>953</v>
       </c>
       <c r="U7" t="n">
-        <v>1034</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="8">
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1002,16 +1002,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>1</v>
@@ -1114,58 +1114,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G10" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H10" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I10" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J10" t="n">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K10" t="n">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="L10" t="n">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="M10" t="n">
-        <v>865</v>
+        <v>916</v>
       </c>
       <c r="N10" t="n">
-        <v>1329</v>
+        <v>1382</v>
       </c>
       <c r="O10" t="n">
-        <v>1815</v>
+        <v>1918</v>
       </c>
       <c r="P10" t="n">
-        <v>2458</v>
+        <v>2428</v>
       </c>
       <c r="Q10" t="n">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="R10" t="n">
-        <v>2421</v>
+        <v>2392</v>
       </c>
       <c r="S10" t="n">
-        <v>2178</v>
+        <v>2220</v>
       </c>
       <c r="T10" t="n">
-        <v>1717</v>
+        <v>1835</v>
       </c>
       <c r="U10" t="n">
-        <v>1591</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="11">
@@ -1185,58 +1185,58 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E11" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H11" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I11" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J11" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K11" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L11" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N11" t="n">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="O11" t="n">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="P11" t="n">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="Q11" t="n">
-        <v>829</v>
+        <v>860</v>
       </c>
       <c r="R11" t="n">
-        <v>1094</v>
+        <v>988</v>
       </c>
       <c r="S11" t="n">
-        <v>1103</v>
+        <v>1025</v>
       </c>
       <c r="T11" t="n">
-        <v>983</v>
+        <v>873</v>
       </c>
       <c r="U11" t="n">
-        <v>985</v>
+        <v>874</v>
       </c>
     </row>
     <row r="12">
@@ -1256,58 +1256,58 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
         <v>11</v>
       </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4</v>
-      </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K12" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="L12" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M12" t="n">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="N12" t="n">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="O12" t="n">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="P12" t="n">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="Q12" t="n">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="R12" t="n">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="S12" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="T12" t="n">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="U12" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1345,40 +1345,40 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
         <v>4</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="n">
-        <v>8</v>
-      </c>
       <c r="O13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S13" t="n">
         <v>8</v>
       </c>
       <c r="T13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1398,43 +1398,43 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q14" t="n">
         <v>6</v>
@@ -1446,10 +1446,10 @@
         <v>6</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1469,58 +1469,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J15" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="K15" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="L15" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="M15" t="n">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="N15" t="n">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="O15" t="n">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="P15" t="n">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="Q15" t="n">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="R15" t="n">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="S15" t="n">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="T15" t="n">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="U15" t="n">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1037</v>
+        <v>1254</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1682,46 +1682,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="E18" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F18" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H18" t="n">
+        <v>16</v>
+      </c>
+      <c r="I18" t="n">
         <v>14</v>
       </c>
-      <c r="I18" t="n">
-        <v>17</v>
-      </c>
       <c r="J18" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M18" t="n">
+        <v>8</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8</v>
+      </c>
+      <c r="P18" t="n">
         <v>7</v>
       </c>
-      <c r="N18" t="n">
-        <v>4</v>
-      </c>
-      <c r="O18" t="n">
-        <v>6</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2</v>
-      </c>
       <c r="Q18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1730,10 +1730,10 @@
         <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1753,58 +1753,58 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E19" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" t="n">
+        <v>13</v>
+      </c>
+      <c r="G19" t="n">
         <v>29</v>
       </c>
-      <c r="F19" t="n">
-        <v>17</v>
-      </c>
-      <c r="G19" t="n">
-        <v>26</v>
-      </c>
       <c r="H19" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I19" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J19" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="K19" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M19" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="O19" t="n">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="P19" t="n">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="Q19" t="n">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="R19" t="n">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="S19" t="n">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="T19" t="n">
-        <v>1923</v>
+        <v>1918</v>
       </c>
       <c r="U19" t="n">
-        <v>3384</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="20">
@@ -1824,58 +1824,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="F20" t="n">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="G20" t="n">
-        <v>347</v>
+        <v>483</v>
       </c>
       <c r="H20" t="n">
-        <v>634</v>
+        <v>809</v>
       </c>
       <c r="I20" t="n">
-        <v>652</v>
+        <v>877</v>
       </c>
       <c r="J20" t="n">
-        <v>655</v>
+        <v>797</v>
       </c>
       <c r="K20" t="n">
-        <v>618</v>
+        <v>774</v>
       </c>
       <c r="L20" t="n">
-        <v>592</v>
+        <v>770</v>
       </c>
       <c r="M20" t="n">
-        <v>708</v>
+        <v>823</v>
       </c>
       <c r="N20" t="n">
-        <v>672</v>
+        <v>809</v>
       </c>
       <c r="O20" t="n">
-        <v>636</v>
+        <v>729</v>
       </c>
       <c r="P20" t="n">
-        <v>508</v>
+        <v>582</v>
       </c>
       <c r="Q20" t="n">
-        <v>383</v>
+        <v>525</v>
       </c>
       <c r="R20" t="n">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="S20" t="n">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="T20" t="n">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="U20" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
@@ -1898,55 +1898,55 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>268</v>
+        <v>94</v>
       </c>
       <c r="H21" t="n">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="I21" t="n">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="J21" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="K21" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="L21" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N21" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P21" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q21" t="n">
         <v>7</v>
       </c>
       <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>6</v>
+      </c>
+      <c r="T21" t="n">
         <v>2</v>
       </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>4</v>
-      </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2097,61 +2097,61 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L2" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="N2" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O2" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P2" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q2" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="R2" t="n">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="S2" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="T2" t="n">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="U2" t="n">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="V2" t="n">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3">
@@ -2171,61 +2171,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H3" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I3" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="J3" t="n">
         <v>48</v>
       </c>
       <c r="K3" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L3" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M3" t="n">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="N3" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="O3" t="n">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="P3" t="n">
-        <v>697</v>
+        <v>675</v>
       </c>
       <c r="Q3" t="n">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="R3" t="n">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="S3" t="n">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="T3" t="n">
         <v>555</v>
       </c>
       <c r="U3" t="n">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="V3" t="n">
-        <v>248</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
@@ -2245,22 +2245,22 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
@@ -2269,37 +2269,37 @@
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>9</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q4" t="n">
+        <v>22</v>
+      </c>
+      <c r="R4" t="n">
+        <v>17</v>
+      </c>
+      <c r="S4" t="n">
+        <v>11</v>
+      </c>
+      <c r="T4" t="n">
         <v>14</v>
-      </c>
-      <c r="R4" t="n">
-        <v>22</v>
-      </c>
-      <c r="S4" t="n">
-        <v>23</v>
-      </c>
-      <c r="T4" t="n">
-        <v>16</v>
       </c>
       <c r="U4" t="n">
         <v>20</v>
       </c>
       <c r="V4" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -2319,13 +2319,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -2334,46 +2334,46 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N5" t="n">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="O5" t="n">
         <v>203</v>
       </c>
       <c r="P5" t="n">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="Q5" t="n">
-        <v>573</v>
+        <v>523</v>
       </c>
       <c r="R5" t="n">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="S5" t="n">
-        <v>827</v>
+        <v>681</v>
       </c>
       <c r="T5" t="n">
-        <v>814</v>
+        <v>747</v>
       </c>
       <c r="U5" t="n">
-        <v>694</v>
+        <v>619</v>
       </c>
       <c r="V5" t="n">
-        <v>591</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6">
@@ -2408,46 +2408,46 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
         <v>3</v>
       </c>
-      <c r="L6" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>6</v>
       </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R6" t="n">
+        <v>8</v>
+      </c>
+      <c r="S6" t="n">
+        <v>15</v>
+      </c>
+      <c r="T6" t="n">
         <v>7</v>
-      </c>
-      <c r="S6" t="n">
-        <v>11</v>
-      </c>
-      <c r="T6" t="n">
-        <v>8</v>
       </c>
       <c r="U6" t="n">
         <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2467,61 +2467,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
         <v>17</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K7" t="n">
         <v>20</v>
       </c>
       <c r="L7" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M7" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N7" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O7" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P7" t="n">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="Q7" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="R7" t="n">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="S7" t="n">
-        <v>659</v>
+        <v>696</v>
       </c>
       <c r="T7" t="n">
-        <v>948</v>
+        <v>1052</v>
       </c>
       <c r="U7" t="n">
-        <v>1115</v>
+        <v>1165</v>
       </c>
       <c r="V7" t="n">
-        <v>1495</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="8">
@@ -2571,13 +2571,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -2589,13 +2589,13 @@
         <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -2689,61 +2689,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
+        <v>19</v>
+      </c>
+      <c r="H10" t="n">
         <v>22</v>
       </c>
-      <c r="H10" t="n">
-        <v>29</v>
-      </c>
       <c r="I10" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J10" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K10" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L10" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M10" t="n">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="N10" t="n">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="O10" t="n">
-        <v>504</v>
+        <v>544</v>
       </c>
       <c r="P10" t="n">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="Q10" t="n">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="R10" t="n">
-        <v>1507</v>
+        <v>1490</v>
       </c>
       <c r="S10" t="n">
-        <v>1823</v>
+        <v>1862</v>
       </c>
       <c r="T10" t="n">
-        <v>1931</v>
+        <v>2047</v>
       </c>
       <c r="U10" t="n">
-        <v>1967</v>
+        <v>1865</v>
       </c>
       <c r="V10" t="n">
-        <v>2072</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="11">
@@ -2763,61 +2763,61 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E11" t="n">
         <v>33</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
         <v>17</v>
       </c>
       <c r="H11" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L11" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M11" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N11" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="O11" t="n">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P11" t="n">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="Q11" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="R11" t="n">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="S11" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="T11" t="n">
-        <v>794</v>
+        <v>751</v>
       </c>
       <c r="U11" t="n">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="V11" t="n">
-        <v>1003</v>
+        <v>914</v>
       </c>
     </row>
     <row r="12">
@@ -2837,13 +2837,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
@@ -2852,46 +2852,46 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M12" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N12" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="O12" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Q12" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R12" t="n">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="S12" t="n">
         <v>94</v>
       </c>
       <c r="T12" t="n">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="U12" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="V12" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -2923,49 +2923,49 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
       </c>
       <c r="Q13" t="n">
+        <v>7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>11</v>
+      </c>
+      <c r="U13" t="n">
         <v>3</v>
       </c>
-      <c r="R13" t="n">
-        <v>7</v>
-      </c>
-      <c r="S13" t="n">
-        <v>10</v>
-      </c>
-      <c r="T13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>16</v>
-      </c>
       <c r="V13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -2991,55 +2991,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
         <v>2</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>5</v>
-      </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S14" t="n">
         <v>11</v>
       </c>
       <c r="T14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="U14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -3059,61 +3059,61 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
         <v>12</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L15" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M15" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="N15" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="O15" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P15" t="n">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="Q15" t="n">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="R15" t="n">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="S15" t="n">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="T15" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U15" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V15" t="n">
-        <v>151</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -3145,25 +3145,25 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
       <c r="K16" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>787</v>
+        <v>849</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -3281,28 +3281,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="E18" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F18" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G18" t="n">
         <v>28</v>
       </c>
       <c r="H18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" t="n">
         <v>14</v>
       </c>
-      <c r="J18" t="n">
-        <v>6</v>
-      </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
         <v>8</v>
@@ -3311,31 +3311,31 @@
         <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q18" t="n">
         <v>7</v>
       </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
       <c r="R18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
         <v>13</v>
@@ -3367,49 +3367,49 @@
         <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J19" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K19" t="n">
         <v>34</v>
       </c>
       <c r="L19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M19" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="O19" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="P19" t="n">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="Q19" t="n">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="R19" t="n">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="S19" t="n">
-        <v>886</v>
+        <v>929</v>
       </c>
       <c r="T19" t="n">
-        <v>1616</v>
+        <v>1605</v>
       </c>
       <c r="U19" t="n">
-        <v>2473</v>
+        <v>2362</v>
       </c>
       <c r="V19" t="n">
-        <v>4859</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="20">
@@ -3429,61 +3429,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E20" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F20" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G20" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H20" t="n">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="I20" t="n">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="J20" t="n">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="K20" t="n">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="L20" t="n">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="M20" t="n">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="N20" t="n">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="O20" t="n">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="P20" t="n">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="Q20" t="n">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="R20" t="n">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="S20" t="n">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="T20" t="n">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="U20" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="V20" t="n">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21">
@@ -3506,55 +3506,55 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="n">
-        <v>2</v>
-      </c>
       <c r="H21" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
         <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="N21" t="n">
-        <v>5</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>

--- a/data/norm.cause-of-death-2011.xlsx
+++ b/data/norm.cause-of-death-2011.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,90 +440,85 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -546,57 +541,54 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="E2" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J2" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="K2" t="n">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L2" t="n">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="M2" t="n">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="N2" t="n">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="O2" t="n">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="P2" t="n">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="Q2" t="n">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="R2" t="n">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="S2" t="n">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="T2" t="n">
-        <v>165</v>
-      </c>
-      <c r="U2" t="n">
         <v>173</v>
       </c>
     </row>
@@ -617,57 +609,54 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E3" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H3" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I3" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="J3" t="n">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="K3" t="n">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="L3" t="n">
-        <v>187</v>
+        <v>385</v>
       </c>
       <c r="M3" t="n">
-        <v>385</v>
+        <v>620</v>
       </c>
       <c r="N3" t="n">
-        <v>620</v>
+        <v>842</v>
       </c>
       <c r="O3" t="n">
-        <v>842</v>
+        <v>1122</v>
       </c>
       <c r="P3" t="n">
-        <v>1122</v>
+        <v>974</v>
       </c>
       <c r="Q3" t="n">
-        <v>974</v>
+        <v>817</v>
       </c>
       <c r="R3" t="n">
-        <v>817</v>
+        <v>615</v>
       </c>
       <c r="S3" t="n">
-        <v>615</v>
+        <v>402</v>
       </c>
       <c r="T3" t="n">
-        <v>402</v>
-      </c>
-      <c r="U3" t="n">
         <v>225</v>
       </c>
     </row>
@@ -688,57 +677,54 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
         <v>15</v>
       </c>
-      <c r="N4" t="n">
-        <v>10</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>20</v>
+      </c>
+      <c r="R4" t="n">
         <v>13</v>
       </c>
-      <c r="P4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>17</v>
-      </c>
-      <c r="R4" t="n">
-        <v>20</v>
-      </c>
       <c r="S4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
-      </c>
-      <c r="U4" t="n">
         <v>12</v>
       </c>
     </row>
@@ -759,57 +745,54 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K5" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="L5" t="n">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="M5" t="n">
-        <v>157</v>
+        <v>297</v>
       </c>
       <c r="N5" t="n">
-        <v>297</v>
+        <v>456</v>
       </c>
       <c r="O5" t="n">
-        <v>456</v>
+        <v>647</v>
       </c>
       <c r="P5" t="n">
-        <v>647</v>
+        <v>681</v>
       </c>
       <c r="Q5" t="n">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="R5" t="n">
-        <v>672</v>
+        <v>603</v>
       </c>
       <c r="S5" t="n">
-        <v>603</v>
+        <v>452</v>
       </c>
       <c r="T5" t="n">
-        <v>452</v>
-      </c>
-      <c r="U5" t="n">
         <v>426</v>
       </c>
     </row>
@@ -833,54 +816,51 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M6" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O6" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="R6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S6" t="n">
         <v>9</v>
       </c>
       <c r="T6" t="n">
-        <v>9</v>
-      </c>
-      <c r="U6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,57 +881,54 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
         <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J7" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="L7" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="N7" t="n">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="O7" t="n">
-        <v>265</v>
+        <v>424</v>
       </c>
       <c r="P7" t="n">
-        <v>424</v>
+        <v>614</v>
       </c>
       <c r="Q7" t="n">
-        <v>614</v>
+        <v>894</v>
       </c>
       <c r="R7" t="n">
-        <v>894</v>
+        <v>1037</v>
       </c>
       <c r="S7" t="n">
-        <v>1037</v>
+        <v>953</v>
       </c>
       <c r="T7" t="n">
-        <v>953</v>
-      </c>
-      <c r="U7" t="n">
         <v>1057</v>
       </c>
     </row>
@@ -1011,18 +988,15 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1093,9 +1067,6 @@
       <c r="T9" t="n">
         <v>0</v>
       </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1114,57 +1085,54 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G10" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="I10" t="n">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="J10" t="n">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c r="K10" t="n">
-        <v>246</v>
+        <v>473</v>
       </c>
       <c r="L10" t="n">
-        <v>473</v>
+        <v>916</v>
       </c>
       <c r="M10" t="n">
-        <v>916</v>
+        <v>1382</v>
       </c>
       <c r="N10" t="n">
-        <v>1382</v>
+        <v>1918</v>
       </c>
       <c r="O10" t="n">
-        <v>1918</v>
+        <v>2428</v>
       </c>
       <c r="P10" t="n">
-        <v>2428</v>
+        <v>2452</v>
       </c>
       <c r="Q10" t="n">
-        <v>2452</v>
+        <v>2392</v>
       </c>
       <c r="R10" t="n">
-        <v>2392</v>
+        <v>2220</v>
       </c>
       <c r="S10" t="n">
-        <v>2220</v>
+        <v>1835</v>
       </c>
       <c r="T10" t="n">
-        <v>1835</v>
-      </c>
-      <c r="U10" t="n">
         <v>1558</v>
       </c>
     </row>
@@ -1185,57 +1153,54 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H11" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I11" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="J11" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="K11" t="n">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="L11" t="n">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="M11" t="n">
-        <v>184</v>
+        <v>275</v>
       </c>
       <c r="N11" t="n">
-        <v>275</v>
+        <v>482</v>
       </c>
       <c r="O11" t="n">
-        <v>482</v>
+        <v>679</v>
       </c>
       <c r="P11" t="n">
-        <v>679</v>
+        <v>860</v>
       </c>
       <c r="Q11" t="n">
-        <v>860</v>
+        <v>988</v>
       </c>
       <c r="R11" t="n">
-        <v>988</v>
+        <v>1025</v>
       </c>
       <c r="S11" t="n">
-        <v>1025</v>
+        <v>873</v>
       </c>
       <c r="T11" t="n">
-        <v>873</v>
-      </c>
-      <c r="U11" t="n">
         <v>874</v>
       </c>
     </row>
@@ -1259,54 +1224,51 @@
         <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
         <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I12" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J12" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="K12" t="n">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="L12" t="n">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="M12" t="n">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="N12" t="n">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="O12" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P12" t="n">
-        <v>352</v>
+        <v>249</v>
       </c>
       <c r="Q12" t="n">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="R12" t="n">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="S12" t="n">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="T12" t="n">
-        <v>74</v>
-      </c>
-      <c r="U12" t="n">
         <v>67</v>
       </c>
     </row>
@@ -1327,57 +1289,54 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
       <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
         <v>5</v>
       </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R13" t="n">
+        <v>8</v>
+      </c>
+      <c r="S13" t="n">
         <v>10</v>
       </c>
-      <c r="S13" t="n">
-        <v>8</v>
-      </c>
       <c r="T13" t="n">
-        <v>10</v>
-      </c>
-      <c r="U13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1398,57 +1357,54 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
         <v>3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
+        <v>7</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S14" t="n">
         <v>2</v>
       </c>
-      <c r="P14" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>6</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>6</v>
-      </c>
       <c r="T14" t="n">
-        <v>2</v>
-      </c>
-      <c r="U14" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1469,57 +1425,54 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I15" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J15" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="L15" t="n">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="M15" t="n">
-        <v>179</v>
+        <v>283</v>
       </c>
       <c r="N15" t="n">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="O15" t="n">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="P15" t="n">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="Q15" t="n">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="R15" t="n">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="S15" t="n">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c r="T15" t="n">
-        <v>219</v>
-      </c>
-      <c r="U15" t="n">
         <v>220</v>
       </c>
     </row>
@@ -1590,9 +1543,6 @@
       <c r="T16" t="n">
         <v>0</v>
       </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1611,7 +1561,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1659,9 +1609,6 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,57 +1629,54 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>468</v>
+        <v>95</v>
       </c>
       <c r="E18" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="F18" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G18" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I18" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
+        <v>9</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8</v>
+      </c>
+      <c r="O18" t="n">
         <v>7</v>
       </c>
-      <c r="L18" t="n">
-        <v>9</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
         <v>8</v>
       </c>
-      <c r="N18" t="n">
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="O18" t="n">
-        <v>8</v>
-      </c>
-      <c r="P18" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>8</v>
-      </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T18" t="n">
-        <v>6</v>
-      </c>
-      <c r="U18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1753,57 +1697,54 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G19" t="n">
         <v>29</v>
       </c>
       <c r="H19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I19" t="n">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="J19" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K19" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="L19" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="N19" t="n">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="O19" t="n">
-        <v>208</v>
+        <v>368</v>
       </c>
       <c r="P19" t="n">
-        <v>368</v>
+        <v>517</v>
       </c>
       <c r="Q19" t="n">
-        <v>517</v>
+        <v>996</v>
       </c>
       <c r="R19" t="n">
-        <v>996</v>
+        <v>1409</v>
       </c>
       <c r="S19" t="n">
-        <v>1409</v>
+        <v>1918</v>
       </c>
       <c r="T19" t="n">
-        <v>1918</v>
-      </c>
-      <c r="U19" t="n">
         <v>3095</v>
       </c>
     </row>
@@ -1824,57 +1765,54 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="E20" t="n">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="F20" t="n">
-        <v>125</v>
+        <v>483</v>
       </c>
       <c r="G20" t="n">
-        <v>483</v>
+        <v>809</v>
       </c>
       <c r="H20" t="n">
+        <v>877</v>
+      </c>
+      <c r="I20" t="n">
+        <v>797</v>
+      </c>
+      <c r="J20" t="n">
+        <v>774</v>
+      </c>
+      <c r="K20" t="n">
+        <v>770</v>
+      </c>
+      <c r="L20" t="n">
+        <v>823</v>
+      </c>
+      <c r="M20" t="n">
         <v>809</v>
       </c>
-      <c r="I20" t="n">
-        <v>877</v>
-      </c>
-      <c r="J20" t="n">
-        <v>797</v>
-      </c>
-      <c r="K20" t="n">
-        <v>774</v>
-      </c>
-      <c r="L20" t="n">
-        <v>770</v>
-      </c>
-      <c r="M20" t="n">
-        <v>823</v>
-      </c>
       <c r="N20" t="n">
-        <v>809</v>
+        <v>729</v>
       </c>
       <c r="O20" t="n">
-        <v>729</v>
+        <v>582</v>
       </c>
       <c r="P20" t="n">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="Q20" t="n">
-        <v>525</v>
+        <v>408</v>
       </c>
       <c r="R20" t="n">
-        <v>408</v>
+        <v>315</v>
       </c>
       <c r="S20" t="n">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="T20" t="n">
-        <v>195</v>
-      </c>
-      <c r="U20" t="n">
         <v>186</v>
       </c>
     </row>
@@ -1895,57 +1833,54 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="G21" t="n">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="H21" t="n">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="I21" t="n">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="J21" t="n">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="K21" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="L21" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M21" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N21" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="O21" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="P21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>6</v>
       </c>
-      <c r="Q21" t="n">
-        <v>7</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
-      </c>
-      <c r="U21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1960,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1986,95 +1921,90 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -2097,60 +2027,57 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" t="n">
         <v>19</v>
       </c>
-      <c r="H2" t="n">
-        <v>20</v>
-      </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K2" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N2" t="n">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="O2" t="n">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="P2" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="Q2" t="n">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="R2" t="n">
+        <v>186</v>
+      </c>
+      <c r="S2" t="n">
+        <v>148</v>
+      </c>
+      <c r="T2" t="n">
         <v>182</v>
       </c>
-      <c r="S2" t="n">
-        <v>186</v>
-      </c>
-      <c r="T2" t="n">
-        <v>148</v>
-      </c>
       <c r="U2" t="n">
-        <v>182</v>
-      </c>
-      <c r="V2" t="n">
         <v>181</v>
       </c>
     </row>
@@ -2171,60 +2098,57 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I3" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J3" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="L3" t="n">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="M3" t="n">
-        <v>229</v>
+        <v>390</v>
       </c>
       <c r="N3" t="n">
-        <v>390</v>
+        <v>565</v>
       </c>
       <c r="O3" t="n">
-        <v>565</v>
+        <v>675</v>
       </c>
       <c r="P3" t="n">
-        <v>675</v>
+        <v>810</v>
       </c>
       <c r="Q3" t="n">
-        <v>810</v>
+        <v>772</v>
       </c>
       <c r="R3" t="n">
-        <v>772</v>
+        <v>704</v>
       </c>
       <c r="S3" t="n">
-        <v>704</v>
+        <v>555</v>
       </c>
       <c r="T3" t="n">
-        <v>555</v>
+        <v>303</v>
       </c>
       <c r="U3" t="n">
-        <v>303</v>
-      </c>
-      <c r="V3" t="n">
         <v>187</v>
       </c>
     </row>
@@ -2245,60 +2169,57 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
         <v>7</v>
       </c>
       <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
         <v>7</v>
       </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6</v>
-      </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P4" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="S4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="U4" t="n">
-        <v>20</v>
-      </c>
-      <c r="V4" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2319,60 +2240,57 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I5" t="n">
         <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L5" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M5" t="n">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="N5" t="n">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="O5" t="n">
-        <v>203</v>
+        <v>331</v>
       </c>
       <c r="P5" t="n">
-        <v>331</v>
+        <v>523</v>
       </c>
       <c r="Q5" t="n">
-        <v>523</v>
+        <v>628</v>
       </c>
       <c r="R5" t="n">
-        <v>628</v>
+        <v>681</v>
       </c>
       <c r="S5" t="n">
-        <v>681</v>
+        <v>747</v>
       </c>
       <c r="T5" t="n">
-        <v>747</v>
+        <v>619</v>
       </c>
       <c r="U5" t="n">
-        <v>619</v>
-      </c>
-      <c r="V5" t="n">
         <v>508</v>
       </c>
     </row>
@@ -2414,39 +2332,36 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q6" t="n">
+        <v>8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>15</v>
+      </c>
+      <c r="S6" t="n">
         <v>7</v>
       </c>
-      <c r="R6" t="n">
-        <v>8</v>
-      </c>
-      <c r="S6" t="n">
-        <v>15</v>
-      </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U6" t="n">
-        <v>5</v>
-      </c>
-      <c r="V6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2467,60 +2382,57 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
         <v>17</v>
       </c>
       <c r="H7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" t="n">
         <v>17</v>
       </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
       <c r="J7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N7" t="n">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="O7" t="n">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="P7" t="n">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="Q7" t="n">
-        <v>235</v>
+        <v>403</v>
       </c>
       <c r="R7" t="n">
-        <v>403</v>
+        <v>696</v>
       </c>
       <c r="S7" t="n">
-        <v>696</v>
+        <v>1052</v>
       </c>
       <c r="T7" t="n">
-        <v>1052</v>
+        <v>1165</v>
       </c>
       <c r="U7" t="n">
-        <v>1165</v>
-      </c>
-      <c r="V7" t="n">
         <v>1557</v>
       </c>
     </row>
@@ -2583,18 +2495,15 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2668,9 +2577,6 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2689,60 +2595,57 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I10" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J10" t="n">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="K10" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L10" t="n">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="M10" t="n">
-        <v>178</v>
+        <v>334</v>
       </c>
       <c r="N10" t="n">
-        <v>334</v>
+        <v>544</v>
       </c>
       <c r="O10" t="n">
-        <v>544</v>
+        <v>744</v>
       </c>
       <c r="P10" t="n">
-        <v>744</v>
+        <v>1151</v>
       </c>
       <c r="Q10" t="n">
-        <v>1151</v>
+        <v>1490</v>
       </c>
       <c r="R10" t="n">
-        <v>1490</v>
+        <v>1862</v>
       </c>
       <c r="S10" t="n">
-        <v>1862</v>
+        <v>2047</v>
       </c>
       <c r="T10" t="n">
-        <v>2047</v>
+        <v>1865</v>
       </c>
       <c r="U10" t="n">
-        <v>1865</v>
-      </c>
-      <c r="V10" t="n">
         <v>2004</v>
       </c>
     </row>
@@ -2763,60 +2666,57 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
+        <v>28</v>
+      </c>
+      <c r="I11" t="n">
         <v>25</v>
       </c>
-      <c r="I11" t="n">
-        <v>28</v>
-      </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="K11" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L11" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M11" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="N11" t="n">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="O11" t="n">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="P11" t="n">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="Q11" t="n">
-        <v>288</v>
+        <v>420</v>
       </c>
       <c r="R11" t="n">
-        <v>420</v>
+        <v>598</v>
       </c>
       <c r="S11" t="n">
-        <v>598</v>
+        <v>751</v>
       </c>
       <c r="T11" t="n">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="U11" t="n">
-        <v>748</v>
-      </c>
-      <c r="V11" t="n">
         <v>914</v>
       </c>
     </row>
@@ -2837,60 +2737,57 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M12" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="N12" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="O12" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P12" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="Q12" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="R12" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="S12" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="T12" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="U12" t="n">
-        <v>59</v>
-      </c>
-      <c r="V12" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2923,13 +2820,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -2941,30 +2838,27 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
         <v>3</v>
       </c>
       <c r="P13" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>11</v>
+      </c>
+      <c r="T13" t="n">
         <v>3</v>
       </c>
-      <c r="Q13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>11</v>
-      </c>
       <c r="U13" t="n">
-        <v>3</v>
-      </c>
-      <c r="V13" t="n">
         <v>18</v>
       </c>
     </row>
@@ -2994,51 +2888,48 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>3</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T14" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="U14" t="n">
-        <v>12</v>
-      </c>
-      <c r="V14" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3059,60 +2950,57 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
         <v>4</v>
       </c>
-      <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L15" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M15" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="N15" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="O15" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="P15" t="n">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="Q15" t="n">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="R15" t="n">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="S15" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="T15" t="n">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="U15" t="n">
-        <v>105</v>
-      </c>
-      <c r="V15" t="n">
         <v>110</v>
       </c>
     </row>
@@ -3145,25 +3033,25 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -3184,9 +3072,6 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3207,7 +3092,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>849</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -3258,9 +3143,6 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3281,60 +3163,57 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>338</v>
+        <v>51</v>
       </c>
       <c r="E18" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F18" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G18" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
+        <v>14</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>12</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>9</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q18" t="n">
         <v>10</v>
       </c>
-      <c r="J18" t="n">
-        <v>14</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="n">
-        <v>12</v>
-      </c>
-      <c r="O18" t="n">
-        <v>5</v>
-      </c>
-      <c r="P18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>7</v>
-      </c>
       <c r="R18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
-      </c>
-      <c r="V18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3355,60 +3234,57 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K19" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N19" t="n">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="O19" t="n">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="P19" t="n">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="Q19" t="n">
-        <v>234</v>
+        <v>414</v>
       </c>
       <c r="R19" t="n">
-        <v>414</v>
+        <v>929</v>
       </c>
       <c r="S19" t="n">
-        <v>929</v>
+        <v>1605</v>
       </c>
       <c r="T19" t="n">
-        <v>1605</v>
+        <v>2362</v>
       </c>
       <c r="U19" t="n">
-        <v>2362</v>
-      </c>
-      <c r="V19" t="n">
         <v>4567</v>
       </c>
     </row>
@@ -3429,60 +3305,57 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E20" t="n">
         <v>70</v>
       </c>
       <c r="F20" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G20" t="n">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="H20" t="n">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="I20" t="n">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="J20" t="n">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="K20" t="n">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="L20" t="n">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="M20" t="n">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="N20" t="n">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="O20" t="n">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="P20" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q20" t="n">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="R20" t="n">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="S20" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T20" t="n">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="U20" t="n">
-        <v>116</v>
-      </c>
-      <c r="V20" t="n">
         <v>137</v>
       </c>
     </row>
@@ -3503,60 +3376,57 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
         <v>11</v>
       </c>
-      <c r="J21" t="n">
-        <v>8</v>
-      </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
       <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/norm.cause-of-death-2011.xlsx
+++ b/data/norm.cause-of-death-2011.xlsx
@@ -673,7 +673,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
